--- a/results/wx07/keypoints/Core Distance Ratio Statistics.xlsx
+++ b/results/wx07/keypoints/Core Distance Ratio Statistics.xlsx
@@ -180,7 +180,7 @@
   <dimension ref="A2:P30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7:P7"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -257,7 +257,7 @@
       </c>
       <c r="D3" s="0" t="e">
         <f aca="false"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>2.39698</v>
@@ -276,7 +276,7 @@
       </c>
       <c r="J3" s="0" t="e">
         <f aca="false"/>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>1.49816433579238</v>
@@ -309,7 +309,7 @@
       </c>
       <c r="D4" s="0" t="e">
         <f aca="false"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2.14979</v>
@@ -328,7 +328,7 @@
       </c>
       <c r="J4" s="0" t="e">
         <f aca="false"/>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>-1.51991536507178</v>
@@ -361,7 +361,7 @@
       </c>
       <c r="D5" s="0" t="e">
         <f aca="false"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1.47873</v>
@@ -412,7 +412,7 @@
       </c>
       <c r="D6" s="0" t="e">
         <f aca="false"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>1.56462</v>
@@ -463,7 +463,7 @@
       </c>
       <c r="D7" s="0" t="e">
         <f aca="false"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1.50625</v>
@@ -505,6 +505,53 @@
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>8</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1.80446</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.333857828174409</v>
+      </c>
+      <c r="D8" s="0" t="e">
+        <f aca="false"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1.65575</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1.485415</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>2.04915</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.3343831483</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.578258720902677</v>
+      </c>
+      <c r="J8" s="0" t="e">
+        <f aca="false"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1.08072268797666</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>1.12747</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>1.31508</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>2.44255</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>5.41338</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -636,7 +683,7 @@
   <dimension ref="A2:P30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7:P7"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -713,7 +760,7 @@
       </c>
       <c r="D3" s="0" t="e">
         <f aca="false"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>3.00063</v>
@@ -732,11 +779,11 @@
       </c>
       <c r="J3" s="0" t="e">
         <f aca="false"/>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="K3" s="0" t="e">
         <f aca="false"/>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>1.2073</v>
@@ -766,7 +813,7 @@
       </c>
       <c r="D4" s="0" t="e">
         <f aca="false"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1.776135</v>
@@ -785,11 +832,11 @@
       </c>
       <c r="J4" s="0" t="e">
         <f aca="false"/>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="K4" s="0" t="e">
         <f aca="false"/>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>1.15717</v>
@@ -819,7 +866,7 @@
       </c>
       <c r="D5" s="0" t="e">
         <f aca="false"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1.450915</v>
@@ -870,7 +917,7 @@
       </c>
       <c r="D6" s="0" t="e">
         <f aca="false"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>1.36908</v>
@@ -889,7 +936,7 @@
       </c>
       <c r="J6" s="0" t="e">
         <f aca="false"/>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>1.55849511661463</v>
@@ -922,7 +969,7 @@
       </c>
       <c r="D7" s="0" t="e">
         <f aca="false"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1.31503</v>
@@ -941,7 +988,7 @@
       </c>
       <c r="J7" s="0" t="e">
         <f aca="false"/>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>1.73202464041926</v>
@@ -965,6 +1012,54 @@
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>8</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1.485415</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.170335</v>
+      </c>
+      <c r="D8" s="0" t="e">
+        <f aca="false"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1.485415</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1.4002475</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1.5705825</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.05802802445</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.240890067146821</v>
+      </c>
+      <c r="J8" s="0" t="e">
+        <f aca="false"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K8" s="0" t="e">
+        <f aca="false"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>0.34067</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>1.31508</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>1.65575</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>2.97083</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1096,7 +1191,7 @@
   <dimension ref="A2:P30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="1" sqref="B7:P7 N2"/>
+      <selection pane="topLeft" activeCell="N2" activeCellId="1" sqref="B8:P8 N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1178,7 +1273,7 @@
       </c>
       <c r="D3" s="0" t="e">
         <f aca="false">'Without Outliers'!D3/All!D3</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="E3" s="0" t="n">
         <f aca="false">'Without Outliers'!E3/All!E3</f>
@@ -1202,11 +1297,11 @@
       </c>
       <c r="J3" s="0" t="e">
         <f aca="false">'Without Outliers'!J3/All!J3</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="K3" s="0" t="e">
         <f aca="false">'Without Outliers'!K3/All!K3</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L3" s="0" t="n">
         <f aca="false">'Without Outliers'!L3/All!L3</f>
@@ -1243,7 +1338,7 @@
       </c>
       <c r="D4" s="0" t="e">
         <f aca="false">'Without Outliers'!D4/All!D4</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">'Without Outliers'!E4/All!E4</f>
@@ -1267,11 +1362,11 @@
       </c>
       <c r="J4" s="0" t="e">
         <f aca="false">'Without Outliers'!J4/All!J4</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="K4" s="0" t="e">
         <f aca="false">'Without Outliers'!K4/All!K4</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="L4" s="0" t="n">
         <f aca="false">'Without Outliers'!L4/All!L4</f>
@@ -1308,7 +1403,7 @@
       </c>
       <c r="D5" s="0" t="e">
         <f aca="false">'Without Outliers'!D5/All!D5</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="E5" s="0" t="n">
         <f aca="false">'Without Outliers'!E5/All!E5</f>
@@ -1373,7 +1468,7 @@
       </c>
       <c r="D6" s="0" t="e">
         <f aca="false">'Without Outliers'!D6/All!D6</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">'Without Outliers'!E6/All!E6</f>
@@ -1397,7 +1492,7 @@
       </c>
       <c r="J6" s="0" t="e">
         <f aca="false">'Without Outliers'!J6/All!J6</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="K6" s="0" t="n">
         <f aca="false">'Without Outliers'!K6/All!K6</f>
@@ -1438,7 +1533,7 @@
       </c>
       <c r="D7" s="0" t="e">
         <f aca="false">'Without Outliers'!D7/All!D7</f>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">'Without Outliers'!E7/All!E7</f>
@@ -1462,7 +1557,7 @@
       </c>
       <c r="J7" s="0" t="e">
         <f aca="false">'Without Outliers'!J7/All!J7</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="K7" s="0" t="n">
         <f aca="false">'Without Outliers'!K7/All!K7</f>
@@ -1493,65 +1588,65 @@
       <c r="A8" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B8" s="0" t="e">
+      <c r="B8" s="0" t="n">
         <f aca="false">'Without Outliers'!B8/All!B8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C8" s="0" t="e">
+        <v>0.823190871507265</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <f aca="false">'Without Outliers'!C8/All!C8</f>
-        <v>#DIV/0!</v>
+        <v>0.510202204727145</v>
       </c>
       <c r="D8" s="0" t="e">
         <f aca="false">'Without Outliers'!D8/All!D8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="0" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <f aca="false">'Without Outliers'!E8/All!E8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="0" t="e">
+        <v>0.8971251698626</v>
+      </c>
+      <c r="F8" s="0" t="n">
         <f aca="false">'Without Outliers'!F8/All!F8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="0" t="e">
+        <v>0.942664171292198</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <f aca="false">'Without Outliers'!G8/All!G8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="0" t="e">
+        <v>0.766455603542932</v>
+      </c>
+      <c r="H8" s="0" t="n">
         <f aca="false">'Without Outliers'!H8/All!H8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="0" t="e">
+        <v>0.173537526472293</v>
+      </c>
+      <c r="I8" s="0" t="n">
         <f aca="false">'Without Outliers'!I8/All!I8</f>
-        <v>#DIV/0!</v>
+        <v>0.416578355741502</v>
       </c>
       <c r="J8" s="0" t="e">
         <f aca="false">'Without Outliers'!J8/All!J8</f>
-        <v>#DIV/0!</v>
+        <v>#NUM!</v>
       </c>
       <c r="K8" s="0" t="e">
         <f aca="false">'Without Outliers'!K8/All!K8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="0" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L8" s="0" t="n">
         <f aca="false">'Without Outliers'!L8/All!L8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="0" t="e">
+        <v>0.302154381047833</v>
+      </c>
+      <c r="M8" s="0" t="n">
         <f aca="false">'Without Outliers'!M8/All!M8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="0" t="e">
+        <v>1</v>
+      </c>
+      <c r="N8" s="0" t="n">
         <f aca="false">'Without Outliers'!N8/All!N8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O8" s="0" t="e">
+        <v>0.677877627888887</v>
+      </c>
+      <c r="O8" s="0" t="n">
         <f aca="false">'Without Outliers'!O8/All!O8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P8" s="0" t="e">
+        <v>0.548793914338177</v>
+      </c>
+      <c r="P8" s="0" t="n">
         <f aca="false">'Without Outliers'!P8/All!P8</f>
-        <v>#DIV/0!</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
